--- a/biology/Botanique/Plasmodiophora/Plasmodiophora.xlsx
+++ b/biology/Botanique/Plasmodiophora/Plasmodiophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plasmodiophora est un genre de rhizaires de la famille des Plasmodiophoridae.
 Ce genre comprend notamment l'espèce Plasmodiophora brassicae, agent responsable de la hernie du chou.
@@ -512,12 +524,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (26 septembre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 septembre 2014) :
 Plasmodiophora alni
 Plasmodiophora brassicae
-Selon Index Fungorum                                      (26 septembre 2014)[2] :
+Selon Index Fungorum                                      (26 septembre 2014) :
 Plasmodiophora alni (Woronin) Möller 1885
 Plasmodiophora bicaudata Feldmann 1941; Protozoa
 Plasmodiophora brassicae Woronin 1877
@@ -530,9 +544,9 @@
 Plasmodiophora solani Brehmer &amp; Bärner 1930; Protozoa
 Plasmodiophora tabaci P.M. Jones 1926; Protozoa
 Plasmodiophora vitis Viala &amp; Sauv. 1891; Protozoa
-Selon ITIS      (26 septembre 2014)[3] :
+Selon ITIS      (26 septembre 2014) :
 Plasmodiophora brassicae Woronin
-Selon NCBI  (26 septembre 2014)[4] :
+Selon NCBI  (26 septembre 2014) :
 Plasmodiophora brassicae
 Plasmodiophora diplantherae</t>
         </is>
